--- a/output/1Y_P80_KFSDIV.xlsx
+++ b/output/1Y_P80_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>11.2543</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.5675</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E3" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="F3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="H3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.061</v>
+        <v>-0.0648</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E4" s="1">
-        <v>1834.8379</v>
+        <v>1831.1715</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="H4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9001</v>
+        <v>10.922</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0568</v>
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.0064</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E5" s="1">
-        <v>2838.1488</v>
+        <v>2832.4732</v>
       </c>
       <c r="F5" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="H5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5703</v>
+        <v>10.5915</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.004</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>10.0129</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E6" s="1">
-        <v>3837.5093</v>
+        <v>3829.8302</v>
       </c>
       <c r="F6" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="H6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4234</v>
+        <v>10.4443</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9233.6998</v>
+        <v>-9235.2322</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.4583</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E7" s="1">
-        <v>4836.2209</v>
+        <v>4826.5411</v>
       </c>
       <c r="F7" s="1">
-        <v>966.6458</v>
+        <v>964.6878</v>
       </c>
       <c r="H7" s="1">
-        <v>50578.6492</v>
+        <v>50376.5398</v>
       </c>
       <c r="I7" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="J7" s="1">
-        <v>51344.9494</v>
+        <v>51141.3076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3387</v>
+        <v>10.3594</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10109.4715</v>
+        <v>-10109.2525</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0603</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.3341</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E8" s="1">
-        <v>5802.8667</v>
+        <v>5791.2288</v>
       </c>
       <c r="F8" s="1">
-        <v>978.2634</v>
+        <v>976.2866</v>
       </c>
       <c r="H8" s="1">
-        <v>59967.4046</v>
+        <v>59727.2595</v>
       </c>
       <c r="I8" s="1">
-        <v>656.8287</v>
+        <v>655.5152</v>
       </c>
       <c r="J8" s="1">
-        <v>60624.2334</v>
+        <v>60382.7748</v>
       </c>
       <c r="K8" s="1">
-        <v>60109.4715</v>
+        <v>60109.2525</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3586</v>
+        <v>10.3794</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10109.4715</v>
+        <v>-10109.2525</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0117</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6781.1301</v>
+        <v>6767.5154</v>
       </c>
       <c r="F9" s="1">
-        <v>1022.7497</v>
+        <v>1020.683</v>
       </c>
       <c r="H9" s="1">
-        <v>67028.75810000001</v>
+        <v>66760.18640000001</v>
       </c>
       <c r="I9" s="1">
-        <v>547.3573</v>
+        <v>546.2627</v>
       </c>
       <c r="J9" s="1">
-        <v>67576.1154</v>
+        <v>67306.4491</v>
       </c>
       <c r="K9" s="1">
-        <v>70218.94289999999</v>
+        <v>70218.50509999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3551</v>
+        <v>10.3758</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2611.29</v>
+        <v>2606.053</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7498.1814</v>
+        <v>-7503.1996</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0432</v>
+        <v>-0.0437</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7803.8797</v>
+        <v>7788.1984</v>
       </c>
       <c r="F10" s="1">
-        <v>1079.7385</v>
+        <v>1077.4234</v>
       </c>
       <c r="H10" s="1">
-        <v>77785.1712</v>
+        <v>77473.8827</v>
       </c>
       <c r="I10" s="1">
-        <v>3049.1758</v>
+        <v>3043.0631</v>
       </c>
       <c r="J10" s="1">
-        <v>80834.3471</v>
+        <v>80516.9458</v>
       </c>
       <c r="K10" s="1">
-        <v>80328.41439999999</v>
+        <v>80327.7576</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2934</v>
+        <v>10.314</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10762.294</v>
+        <v>-10760.7658</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.042</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.4908</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E11" s="1">
-        <v>8883.6183</v>
+        <v>8865.621800000001</v>
       </c>
       <c r="F11" s="1">
-        <v>1025.8792</v>
+        <v>1023.6844</v>
       </c>
       <c r="H11" s="1">
-        <v>93196.2626</v>
+        <v>92821.287</v>
       </c>
       <c r="I11" s="1">
-        <v>2286.8819</v>
+        <v>2282.2973</v>
       </c>
       <c r="J11" s="1">
-        <v>95483.14449999999</v>
+        <v>95103.5843</v>
       </c>
       <c r="K11" s="1">
-        <v>91090.7083</v>
+        <v>91088.52340000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2538</v>
+        <v>10.2744</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10762.294</v>
+        <v>-10760.7658</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0512</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.6308</v>
       </c>
       <c r="C12" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D12" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E12" s="1">
-        <v>9909.497499999999</v>
+        <v>9889.306200000001</v>
       </c>
       <c r="F12" s="1">
-        <v>1012.3691</v>
+        <v>1010.2013</v>
       </c>
       <c r="H12" s="1">
-        <v>105345.8862</v>
+        <v>104920.5941</v>
       </c>
       <c r="I12" s="1">
-        <v>1524.5879</v>
+        <v>1521.5316</v>
       </c>
       <c r="J12" s="1">
-        <v>106870.4742</v>
+        <v>106442.1257</v>
       </c>
       <c r="K12" s="1">
-        <v>101853.0023</v>
+        <v>101849.2892</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2783</v>
+        <v>10.2989</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10762.294</v>
+        <v>-10760.7658</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0132</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.3176</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E13" s="1">
-        <v>10921.8667</v>
+        <v>10899.5075</v>
       </c>
       <c r="F13" s="1">
-        <v>1043.1005</v>
+        <v>1040.8641</v>
       </c>
       <c r="H13" s="1">
-        <v>112687.4516</v>
+        <v>112232.2292</v>
       </c>
       <c r="I13" s="1">
-        <v>762.294</v>
+        <v>760.7658</v>
       </c>
       <c r="J13" s="1">
-        <v>113449.7455</v>
+        <v>112992.995</v>
       </c>
       <c r="K13" s="1">
-        <v>112615.2962</v>
+        <v>112610.055</v>
       </c>
       <c r="L13" s="1">
-        <v>10.311</v>
+        <v>10.3317</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10762.294</v>
+        <v>-10760.7658</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0293</v>
+        <v>-0.0296</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.2392</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E14" s="1">
-        <v>11964.9672</v>
+        <v>11940.3717</v>
       </c>
       <c r="F14" s="1">
-        <v>-11964.9672</v>
+        <v>-11940.3717</v>
       </c>
       <c r="H14" s="1">
-        <v>122511.6921</v>
+        <v>122015.0762</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>122511.6921</v>
+        <v>122015.0762</v>
       </c>
       <c r="K14" s="1">
-        <v>123377.5902</v>
+        <v>123370.8207</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3116</v>
+        <v>10.3322</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122511.6921</v>
+        <v>122015.0762</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>11.2543</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.5675</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E3" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="F3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.061</v>
+        <v>-0.0648</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E4" s="1">
-        <v>1834.8379</v>
+        <v>1831.1715</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9001</v>
+        <v>10.922</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0568</v>
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.0064</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E5" s="1">
-        <v>2838.1488</v>
+        <v>2832.4732</v>
       </c>
       <c r="F5" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5703</v>
+        <v>10.5915</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.004</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>10.0129</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E6" s="1">
-        <v>3837.5093</v>
+        <v>3829.8302</v>
       </c>
       <c r="F6" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4234</v>
+        <v>10.4443</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9233.6998</v>
+        <v>-9235.2322</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.4583</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E7" s="1">
-        <v>4836.2209</v>
+        <v>4826.5411</v>
       </c>
       <c r="F7" s="1">
-        <v>900.8492</v>
+        <v>922.0170000000001</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50578.6492</v>
+        <v>50376.5398</v>
       </c>
       <c r="I7" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="J7" s="1">
-        <v>51344.9494</v>
+        <v>51141.3076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3387</v>
+        <v>10.3594</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9421.3508</v>
+        <v>-9662.092699999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0603</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.3341</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E8" s="1">
-        <v>5737.0701</v>
+        <v>5748.5581</v>
       </c>
       <c r="F8" s="1">
-        <v>1036.6209</v>
+        <v>1038.7284</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59287.4559</v>
+        <v>59287.1788</v>
       </c>
       <c r="I8" s="1">
-        <v>1344.9494</v>
+        <v>1102.675</v>
       </c>
       <c r="J8" s="1">
-        <v>60632.4053</v>
+        <v>60389.8538</v>
       </c>
       <c r="K8" s="1">
-        <v>59421.3508</v>
+        <v>59662.0927</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3574</v>
+        <v>10.3786</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10712.5441</v>
+        <v>-10755.8246</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0116</v>
+        <v>-0.0123</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6773.691</v>
+        <v>6787.2864</v>
       </c>
       <c r="F9" s="1">
-        <v>1075.6536</v>
+        <v>1044.6721</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66955.2259</v>
+        <v>66955.2233</v>
       </c>
       <c r="I9" s="1">
-        <v>632.4053</v>
+        <v>346.8505</v>
       </c>
       <c r="J9" s="1">
-        <v>67587.6312</v>
+        <v>67302.0738</v>
       </c>
       <c r="K9" s="1">
-        <v>70133.8949</v>
+        <v>70417.9173</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3539</v>
+        <v>10.375</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2581.6815</v>
+        <v>2586.8511</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8050.7238</v>
+        <v>-7759.9994</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0431</v>
+        <v>-0.0439</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7849.3446</v>
+        <v>7831.9586</v>
       </c>
       <c r="F10" s="1">
-        <v>1180.0008</v>
+        <v>1215.4499</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>78238.3419</v>
+        <v>77909.1909</v>
       </c>
       <c r="I10" s="1">
-        <v>2581.6815</v>
+        <v>2586.8511</v>
       </c>
       <c r="J10" s="1">
-        <v>80820.02340000001</v>
+        <v>80496.04210000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80766.3002</v>
+        <v>80764.7678</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2896</v>
+        <v>10.3122</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11761.6581</v>
+        <v>-12139.3055</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0417</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.4908</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E11" s="1">
-        <v>9029.3454</v>
+        <v>9047.4084</v>
       </c>
       <c r="F11" s="1">
-        <v>502.8161</v>
+        <v>503.8724</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>94725.0564</v>
+        <v>94724.5567</v>
       </c>
       <c r="I11" s="1">
-        <v>820.0234</v>
+        <v>447.5456</v>
       </c>
       <c r="J11" s="1">
-        <v>95545.0799</v>
+        <v>95172.1023</v>
       </c>
       <c r="K11" s="1">
-        <v>92527.9583</v>
+        <v>92904.0733</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2475</v>
+        <v>10.2686</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5274.9436</v>
+        <v>-5296.606</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.052</v>
+        <v>0.0517</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.6308</v>
       </c>
       <c r="C12" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D12" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E12" s="1">
-        <v>9532.1615</v>
+        <v>9551.2808</v>
       </c>
       <c r="F12" s="1">
-        <v>815.1313</v>
+        <v>816.7855</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>101334.5026</v>
+        <v>101334.3139</v>
       </c>
       <c r="I12" s="1">
-        <v>5545.0799</v>
+        <v>5150.9397</v>
       </c>
       <c r="J12" s="1">
-        <v>106879.5825</v>
+        <v>106485.2536</v>
       </c>
       <c r="K12" s="1">
-        <v>97802.9019</v>
+        <v>98200.6792</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2603</v>
+        <v>10.2814</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8665.4974</v>
+        <v>-8700.481100000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0126</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.3176</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E13" s="1">
-        <v>10347.2928</v>
+        <v>10368.0664</v>
       </c>
       <c r="F13" s="1">
-        <v>1283.319</v>
+        <v>1285.8134</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>106759.2279</v>
+        <v>106759.9793</v>
       </c>
       <c r="I13" s="1">
-        <v>6879.5825</v>
+        <v>6450.4585</v>
       </c>
       <c r="J13" s="1">
-        <v>113638.8104</v>
+        <v>113210.4378</v>
       </c>
       <c r="K13" s="1">
-        <v>106468.3993</v>
+        <v>106901.1604</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2895</v>
+        <v>10.3106</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13240.7721</v>
+        <v>-13293.1248</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0277</v>
+        <v>-0.0281</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.2392</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E14" s="1">
-        <v>11630.6118</v>
+        <v>11653.8798</v>
       </c>
       <c r="F14" s="1">
-        <v>-11630.6118</v>
+        <v>-11653.8798</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119088.16</v>
+        <v>119087.5012</v>
       </c>
       <c r="I14" s="1">
-        <v>3638.8104</v>
+        <v>3157.3337</v>
       </c>
       <c r="J14" s="1">
-        <v>122726.9704</v>
+        <v>122244.8349</v>
       </c>
       <c r="K14" s="1">
-        <v>119709.1714</v>
+        <v>120194.2852</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2926</v>
+        <v>10.3137</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>119088.16</v>
+        <v>119087.5012</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0074</v>
+        <v>-0.0078</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.2543</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.5675</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E3" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="F3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.061</v>
+        <v>-0.0648</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E4" s="1">
-        <v>1834.8379</v>
+        <v>1831.1715</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9001</v>
+        <v>10.922</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0568</v>
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.0064</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E5" s="1">
-        <v>2838.1488</v>
+        <v>2832.4732</v>
       </c>
       <c r="F5" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5703</v>
+        <v>10.5915</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.004</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>10.0129</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E6" s="1">
-        <v>3837.5093</v>
+        <v>3829.8302</v>
       </c>
       <c r="F6" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4234</v>
+        <v>10.4443</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9233.6998</v>
+        <v>-9235.2322</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.4583</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E7" s="1">
-        <v>4836.2209</v>
+        <v>4826.5411</v>
       </c>
       <c r="F7" s="1">
-        <v>973.0424</v>
+        <v>994.3548</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50578.6492</v>
+        <v>50376.5398</v>
       </c>
       <c r="I7" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="J7" s="1">
-        <v>51344.9494</v>
+        <v>51141.3076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3387</v>
+        <v>10.3594</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10176.3696</v>
+        <v>-10420.1425</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0603</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.3341</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E8" s="1">
-        <v>5809.2633</v>
+        <v>5820.8959</v>
       </c>
       <c r="F8" s="1">
-        <v>1024.756</v>
+        <v>999.0174</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60033.5083</v>
+        <v>60033.2277</v>
       </c>
       <c r="I8" s="1">
-        <v>589.9306</v>
+        <v>344.6253</v>
       </c>
       <c r="J8" s="1">
-        <v>60623.4389</v>
+        <v>60377.853</v>
       </c>
       <c r="K8" s="1">
-        <v>60176.3696</v>
+        <v>60420.1425</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3587</v>
+        <v>10.3799</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10589.9306</v>
+        <v>-10344.6253</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0118</v>
+        <v>-0.0125</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6834.0193</v>
+        <v>6819.9133</v>
       </c>
       <c r="F9" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67551.5472</v>
+        <v>67277.0806</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67551.5472</v>
+        <v>67277.0806</v>
       </c>
       <c r="K9" s="1">
-        <v>70766.3002</v>
+        <v>70764.7678</v>
       </c>
       <c r="L9" s="1">
-        <v>10.355</v>
+        <v>10.3762</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2614.1685</v>
+        <v>2619.4032</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7385.8315</v>
+        <v>-7380.5968</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0435</v>
+        <v>-0.0441</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7845.694</v>
+        <v>7829.5656</v>
       </c>
       <c r="F10" s="1">
-        <v>1265.5298</v>
+        <v>1263.5197</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>78201.9553</v>
+        <v>77885.3864</v>
       </c>
       <c r="I10" s="1">
-        <v>2614.1685</v>
+        <v>2619.4032</v>
       </c>
       <c r="J10" s="1">
-        <v>80816.1238</v>
+        <v>80504.7895</v>
       </c>
       <c r="K10" s="1">
-        <v>80766.3002</v>
+        <v>80764.7678</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2943</v>
+        <v>10.3154</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12614.1685</v>
+        <v>-12619.4032</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0421</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.4908</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E11" s="1">
-        <v>9111.223900000001</v>
+        <v>9093.085300000001</v>
       </c>
       <c r="F11" s="1">
-        <v>638.2961</v>
+        <v>675.99</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>95584.0272</v>
+        <v>95202.78419999999</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>95584.0272</v>
+        <v>95202.78419999999</v>
       </c>
       <c r="K11" s="1">
-        <v>93380.4687</v>
+        <v>93384.1709</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2489</v>
+        <v>10.2698</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6696.2369</v>
+        <v>-7105.8714</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.6308</v>
       </c>
       <c r="C12" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D12" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E12" s="1">
-        <v>9749.52</v>
+        <v>9769.0753</v>
       </c>
       <c r="F12" s="1">
-        <v>860.3744</v>
+        <v>862.1199</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>103645.1969</v>
+        <v>103645.0039</v>
       </c>
       <c r="I12" s="1">
-        <v>3303.7631</v>
+        <v>2894.1286</v>
       </c>
       <c r="J12" s="1">
-        <v>106948.96</v>
+        <v>106539.1325</v>
       </c>
       <c r="K12" s="1">
-        <v>100076.7056</v>
+        <v>100490.0424</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2648</v>
+        <v>10.2865</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9146.468500000001</v>
+        <v>-9183.3878</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0129</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.3176</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E13" s="1">
-        <v>10609.8944</v>
+        <v>10631.1952</v>
       </c>
       <c r="F13" s="1">
-        <v>1345.9503</v>
+        <v>1326.2084</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>109468.6465</v>
+        <v>109469.4169</v>
       </c>
       <c r="I13" s="1">
-        <v>4157.2946</v>
+        <v>3710.7408</v>
       </c>
       <c r="J13" s="1">
-        <v>113625.9411</v>
+        <v>113180.1577</v>
       </c>
       <c r="K13" s="1">
-        <v>109223.1741</v>
+        <v>109673.4302</v>
       </c>
       <c r="L13" s="1">
-        <v>10.2945</v>
+        <v>10.3162</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13886.9773</v>
+        <v>-13710.7408</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0284</v>
+        <v>-0.0288</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.2392</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E14" s="1">
-        <v>11955.8447</v>
+        <v>11957.4036</v>
       </c>
       <c r="F14" s="1">
-        <v>-11955.8447</v>
+        <v>-11957.4036</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122418.2855</v>
+        <v>122189.1205</v>
       </c>
       <c r="I14" s="1">
-        <v>270.3174</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>122688.6029</v>
+        <v>122189.1205</v>
       </c>
       <c r="K14" s="1">
-        <v>123110.1513</v>
+        <v>123384.1709</v>
       </c>
       <c r="L14" s="1">
-        <v>10.2971</v>
+        <v>10.3186</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122418.2855</v>
+        <v>122189.1205</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -2920,7 +2920,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -2992,16 +2992,16 @@
         <v>11.2543</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.5675</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E3" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="F3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.061</v>
+        <v>-0.0648</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E4" s="1">
-        <v>1834.8379</v>
+        <v>1831.1715</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9001</v>
+        <v>10.922</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0568</v>
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.0064</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E5" s="1">
-        <v>2838.1488</v>
+        <v>2832.4732</v>
       </c>
       <c r="F5" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5703</v>
+        <v>10.5915</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.004</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>10.0129</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E6" s="1">
-        <v>3837.5093</v>
+        <v>3829.8302</v>
       </c>
       <c r="F6" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4234</v>
+        <v>10.4443</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9233.6998</v>
+        <v>-9235.2322</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.4583</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E7" s="1">
-        <v>4836.2209</v>
+        <v>4826.5411</v>
       </c>
       <c r="F7" s="1">
-        <v>1029.4503</v>
+        <v>1027.2411</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50578.6492</v>
+        <v>50376.5398</v>
       </c>
       <c r="I7" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="J7" s="1">
-        <v>51344.9494</v>
+        <v>51141.3076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3387</v>
+        <v>10.3594</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10766.3002</v>
+        <v>-10764.7678</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0603</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.3341</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E8" s="1">
-        <v>5865.6712</v>
+        <v>5853.7822</v>
       </c>
       <c r="F8" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60616.4331</v>
+        <v>60372.3972</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60616.4331</v>
+        <v>60372.3972</v>
       </c>
       <c r="K8" s="1">
-        <v>60766.3002</v>
+        <v>60764.7678</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3596</v>
+        <v>10.3804</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0119</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6833.3414</v>
+        <v>6819.5179</v>
       </c>
       <c r="F9" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67544.8461</v>
+        <v>67273.17999999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67544.8461</v>
+        <v>67273.17999999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70766.3002</v>
+        <v>70764.7678</v>
       </c>
       <c r="L9" s="1">
-        <v>10.356</v>
+        <v>10.3768</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2639.5521</v>
+        <v>2634.202</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7360.4479</v>
+        <v>-7365.798</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0435</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7845.0161</v>
+        <v>7829.1702</v>
       </c>
       <c r="F10" s="1">
-        <v>1268.0765</v>
+        <v>1265.0015</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>78195.1979</v>
+        <v>77881.45299999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2639.5521</v>
+        <v>2634.202</v>
       </c>
       <c r="J10" s="1">
-        <v>80834.75</v>
+        <v>80515.655</v>
       </c>
       <c r="K10" s="1">
-        <v>80766.3002</v>
+        <v>80764.7678</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2952</v>
+        <v>10.3159</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12639.5521</v>
+        <v>-12634.202</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0424</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.4908</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E11" s="1">
-        <v>9113.0926</v>
+        <v>9094.1716</v>
       </c>
       <c r="F11" s="1">
-        <v>859.6574000000001</v>
+        <v>898.5814</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>95603.63129999999</v>
+        <v>95214.15790000001</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>95603.63129999999</v>
+        <v>95214.15790000001</v>
       </c>
       <c r="K11" s="1">
-        <v>93405.85219999999</v>
+        <v>93398.96980000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2496</v>
+        <v>10.2702</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9018.4941</v>
+        <v>-9445.707899999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.6308</v>
       </c>
       <c r="C12" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D12" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E12" s="1">
-        <v>9972.75</v>
+        <v>9992.753000000001</v>
       </c>
       <c r="F12" s="1">
-        <v>907.7432</v>
+        <v>909.5842</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>106018.3104</v>
+        <v>106018.113</v>
       </c>
       <c r="I12" s="1">
-        <v>981.5059</v>
+        <v>554.2921</v>
       </c>
       <c r="J12" s="1">
-        <v>106999.8163</v>
+        <v>106572.4051</v>
       </c>
       <c r="K12" s="1">
-        <v>102424.3463</v>
+        <v>102844.6777</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2704</v>
+        <v>10.2919</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-9650.0363</v>
+        <v>-9688.981900000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0132</v>
+        <v>0.0129</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.3176</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E13" s="1">
-        <v>10880.4932</v>
+        <v>10902.3372</v>
       </c>
       <c r="F13" s="1">
-        <v>1098.266</v>
+        <v>1050.9765</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112260.5762</v>
+        <v>112261.3663</v>
       </c>
       <c r="I13" s="1">
-        <v>1331.4697</v>
+        <v>865.3101</v>
       </c>
       <c r="J13" s="1">
-        <v>113592.0459</v>
+        <v>113126.6764</v>
       </c>
       <c r="K13" s="1">
-        <v>112074.3826</v>
+        <v>112533.6596</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3005</v>
+        <v>10.322</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11331.4697</v>
+        <v>-10865.3101</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0291</v>
+        <v>-0.0296</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.2392</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E14" s="1">
-        <v>11978.7592</v>
+        <v>11953.3137</v>
       </c>
       <c r="F14" s="1">
-        <v>-11978.7592</v>
+        <v>-11953.3137</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122652.9111</v>
+        <v>122147.3266</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>122652.9111</v>
+        <v>122147.3266</v>
       </c>
       <c r="K14" s="1">
-        <v>123405.8522</v>
+        <v>123398.9698</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3021</v>
+        <v>10.3234</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122652.9111</v>
+        <v>122147.3266</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0076</v>
+        <v>-0.008</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3688,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>11.2543</v>
       </c>
       <c r="C2" s="1">
-        <v>11.2543</v>
+        <v>11.2318</v>
       </c>
       <c r="D2" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.5675</v>
       </c>
       <c r="C3" s="1">
-        <v>10.5675</v>
+        <v>10.5464</v>
       </c>
       <c r="D3" s="1">
-        <v>10.5676</v>
+        <v>10.5887</v>
       </c>
       <c r="E3" s="1">
-        <v>888.5493</v>
+        <v>886.7685</v>
       </c>
       <c r="F3" s="1">
-        <v>946.2886999999999</v>
+        <v>944.403</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9389.7444</v>
+        <v>9352.2156</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.2543</v>
+        <v>11.2769</v>
       </c>
       <c r="M3" s="1">
         <v>0.3</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.061</v>
+        <v>-0.0648</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>9.967000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.947100000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>9.967000000000001</v>
+        <v>9.987</v>
       </c>
       <c r="E4" s="1">
-        <v>1834.8379</v>
+        <v>1831.1715</v>
       </c>
       <c r="F4" s="1">
-        <v>1003.3109</v>
+        <v>1001.3017</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18287.8296</v>
+        <v>18214.8463</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.9001</v>
+        <v>10.922</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0568</v>
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.0064</v>
       </c>
       <c r="C5" s="1">
-        <v>10.0064</v>
+        <v>9.9864</v>
       </c>
       <c r="D5" s="1">
-        <v>10.0064</v>
+        <v>10.0265</v>
       </c>
       <c r="E5" s="1">
-        <v>2838.1488</v>
+        <v>2832.4732</v>
       </c>
       <c r="F5" s="1">
-        <v>999.3604</v>
+        <v>997.357</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>28399.6526</v>
+        <v>28286.2105</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.5703</v>
+        <v>10.5915</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.004</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>10.0129</v>
       </c>
       <c r="C6" s="1">
-        <v>10.0129</v>
+        <v>9.992900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>10.0129</v>
+        <v>10.033</v>
       </c>
       <c r="E6" s="1">
-        <v>3837.5093</v>
+        <v>3829.8302</v>
       </c>
       <c r="F6" s="1">
-        <v>998.7117</v>
+        <v>996.7109</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38424.5964</v>
+        <v>38271.1104</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4234</v>
+        <v>10.4443</v>
       </c>
       <c r="M6" s="1">
         <v>0.3</v>
       </c>
       <c r="N6" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9233.6998</v>
+        <v>-9235.2322</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0005999999999999999</v>
+        <v>-0.0004</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.4583</v>
       </c>
       <c r="C7" s="1">
-        <v>10.4583</v>
+        <v>10.4374</v>
       </c>
       <c r="D7" s="1">
-        <v>10.4583</v>
+        <v>10.4793</v>
       </c>
       <c r="E7" s="1">
-        <v>4836.2209</v>
+        <v>4826.5411</v>
       </c>
       <c r="F7" s="1">
-        <v>1029.4503</v>
+        <v>1027.2411</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>50578.6492</v>
+        <v>50376.5398</v>
       </c>
       <c r="I7" s="1">
-        <v>766.3002</v>
+        <v>764.7678</v>
       </c>
       <c r="J7" s="1">
-        <v>51344.9494</v>
+        <v>51141.3076</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3387</v>
+        <v>10.3594</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10766.3002</v>
+        <v>-10764.7678</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0603</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.3341</v>
       </c>
       <c r="C8" s="1">
-        <v>10.3341</v>
+        <v>10.3134</v>
       </c>
       <c r="D8" s="1">
-        <v>10.3341</v>
+        <v>10.3548</v>
       </c>
       <c r="E8" s="1">
-        <v>5865.6712</v>
+        <v>5853.7822</v>
       </c>
       <c r="F8" s="1">
-        <v>967.6701</v>
+        <v>965.7357</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60616.4331</v>
+        <v>60372.3972</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60616.4331</v>
+        <v>60372.3972</v>
       </c>
       <c r="K8" s="1">
-        <v>60766.3002</v>
+        <v>60764.7678</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3596</v>
+        <v>10.3804</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0119</v>
+        <v>-0.0126</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>9.884600000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.864800000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>9.884600000000001</v>
+        <v>9.904400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>6833.3414</v>
+        <v>6819.5179</v>
       </c>
       <c r="F9" s="1">
-        <v>1011.6747</v>
+        <v>1009.6523</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>67544.8461</v>
+        <v>67273.17999999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67544.8461</v>
+        <v>67273.17999999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70766.3002</v>
+        <v>70764.7678</v>
       </c>
       <c r="L9" s="1">
-        <v>10.356</v>
+        <v>10.3768</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2639.5521</v>
+        <v>2634.202</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7360.4479</v>
+        <v>-7365.798</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0435</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>9.967499999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.9476</v>
       </c>
       <c r="D10" s="1">
-        <v>9.967499999999999</v>
+        <v>9.987500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>7845.0161</v>
+        <v>7829.1702</v>
       </c>
       <c r="F10" s="1">
-        <v>1268.0765</v>
+        <v>1265.0015</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>78195.1979</v>
+        <v>77881.45299999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2639.5521</v>
+        <v>2634.202</v>
       </c>
       <c r="J10" s="1">
-        <v>80834.75</v>
+        <v>80515.655</v>
       </c>
       <c r="K10" s="1">
-        <v>80766.3002</v>
+        <v>80764.7678</v>
       </c>
       <c r="L10" s="1">
-        <v>10.2952</v>
+        <v>10.3159</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12639.5521</v>
+        <v>-12634.202</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0424</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.4908</v>
       </c>
       <c r="C11" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D11" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E11" s="1">
-        <v>9113.0926</v>
+        <v>9094.1716</v>
       </c>
       <c r="F11" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>95603.63129999999</v>
+        <v>95214.15790000001</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>95603.63129999999</v>
+        <v>95214.15790000001</v>
       </c>
       <c r="K11" s="1">
-        <v>93405.85219999999</v>
+        <v>93398.96980000001</v>
       </c>
       <c r="L11" s="1">
-        <v>10.2496</v>
+        <v>10.2702</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0525</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.6308</v>
       </c>
       <c r="C12" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D12" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E12" s="1">
-        <v>10066.3087</v>
+        <v>10045.4835</v>
       </c>
       <c r="F12" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107012.9145</v>
+        <v>106577.5568</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>107012.9145</v>
+        <v>106577.5568</v>
       </c>
       <c r="K12" s="1">
-        <v>103405.8522</v>
+        <v>103398.9698</v>
       </c>
       <c r="L12" s="1">
-        <v>10.2725</v>
+        <v>10.2931</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0133</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.3176</v>
       </c>
       <c r="C13" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D13" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E13" s="1">
-        <v>11006.9717</v>
+        <v>10984.2655</v>
       </c>
       <c r="F13" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113565.531</v>
+        <v>113104.9817</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>113565.531</v>
+        <v>113104.9817</v>
       </c>
       <c r="K13" s="1">
-        <v>113405.8522</v>
+        <v>113398.9698</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3031</v>
+        <v>10.3238</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0295</v>
+        <v>-0.0298</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.2392</v>
       </c>
       <c r="C14" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D14" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E14" s="1">
-        <v>11976.1893</v>
+        <v>11951.5425</v>
       </c>
       <c r="F14" s="1">
-        <v>-11976.1893</v>
+        <v>-11951.5425</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122626.5978</v>
+        <v>122129.2274</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>122626.5978</v>
+        <v>122129.2274</v>
       </c>
       <c r="K14" s="1">
-        <v>123405.8522</v>
+        <v>123398.9698</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3043</v>
+        <v>10.3249</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122626.5978</v>
+        <v>122129.2274</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0076</v>
+        <v>-0.007900000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3116</v>
+        <v>10.3322</v>
       </c>
       <c r="D3" s="1">
-        <v>10.2926</v>
+        <v>10.3137</v>
       </c>
       <c r="E3" s="1">
-        <v>10.2971</v>
+        <v>10.3186</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3021</v>
+        <v>10.3234</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3043</v>
+        <v>10.3249</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.08699999999999999</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0384</v>
+        <v>-0.0507</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0364</v>
+        <v>-0.0486</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0367</v>
+        <v>-0.049</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0369</v>
+        <v>-0.0493</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0371</v>
+        <v>-0.0495</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1195</v>
       </c>
       <c r="C5" s="3">
-        <v>0.134</v>
+        <v>0.1358</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1338</v>
+        <v>0.1359</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1345</v>
+        <v>0.1363</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1348</v>
+        <v>0.1366</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1349</v>
+        <v>0.1366</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.8978</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.4382</v>
+        <v>-0.5231</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.4241</v>
+        <v>-0.5073</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.4239</v>
+        <v>-0.5084</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.4246</v>
+        <v>-0.5099</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.4259</v>
+        <v>-0.5108</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0394</v>
+        <v>0.0315</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0435</v>
+        <v>0.0356</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0423</v>
+        <v>0.0343</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0414</v>
+        <v>0.0334</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0408</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3377.5902</v>
+        <v>3370.8207</v>
       </c>
       <c r="D8" s="1">
-        <v>3347.9817</v>
+        <v>3351.6189</v>
       </c>
       <c r="E8" s="1">
-        <v>3380.4687</v>
+        <v>3384.1709</v>
       </c>
       <c r="F8" s="1">
-        <v>3405.8522</v>
+        <v>3398.9698</v>
       </c>
       <c r="G8" s="1">
-        <v>3405.8522</v>
+        <v>3398.9698</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P80_KFSDIV.xlsx
+++ b/output/1Y_P80_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>4371.3675</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.989</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0255</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9972</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9902</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
